--- a/香港現在上映電影 2025-04-01.xlsx
+++ b/香港現在上映電影 2025-04-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="126">
   <si>
     <t>英文名稱</t>
   </si>
@@ -88,6 +88,9 @@
     <t>米奇17號</t>
   </si>
   <si>
+    <t>狗狗打官司</t>
+  </si>
+  <si>
     <t>美聲歌后：瑪麗亞</t>
   </si>
   <si>
@@ -148,6 +151,9 @@
     <t>Mickey 17</t>
   </si>
   <si>
+    <t>Dog On Trial</t>
+  </si>
+  <si>
     <t>Maria</t>
   </si>
   <si>
@@ -199,6 +205,9 @@
     <t>13/3/2025</t>
   </si>
   <si>
+    <t>3/4/2025</t>
+  </si>
+  <si>
     <t>12/2/2025</t>
   </si>
   <si>
@@ -244,6 +253,9 @@
     <t>科幻、喜劇、劇情、驚悚</t>
   </si>
   <si>
+    <t>喜劇、劇情</t>
+  </si>
+  <si>
     <t>恐怖、驚悚</t>
   </si>
   <si>
@@ -298,6 +310,9 @@
     <t>2h 17m</t>
   </si>
   <si>
+    <t>1h 23m</t>
+  </si>
+  <si>
     <t>2h 3m</t>
   </si>
   <si>
@@ -331,6 +346,9 @@
     <t>日語</t>
   </si>
   <si>
+    <t>法語</t>
+  </si>
+  <si>
     <t>韓語</t>
   </si>
   <si>
@@ -353,9 +371,6 @@
   </si>
   <si>
     <t>82</t>
-  </si>
-  <si>
-    <t>81</t>
   </si>
   <si>
     <t>79</t>
@@ -772,7 +787,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -824,19 +839,19 @@
         <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G2" s="1">
         <v>12</v>
@@ -848,7 +863,7 @@
         <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -856,22 +871,22 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G3" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H3" s="1">
         <v>98</v>
@@ -880,7 +895,7 @@
         <v>500</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -888,19 +903,19 @@
         <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G4" s="1">
         <v>19</v>
@@ -912,7 +927,7 @@
         <v>1000</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -920,19 +935,19 @@
         <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G5" s="1">
         <v>336</v>
@@ -944,7 +959,7 @@
         <v>1000</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -952,19 +967,19 @@
         <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G6" s="1">
         <v>319</v>
@@ -976,7 +991,7 @@
         <v>1000</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -984,19 +999,19 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G7" s="1">
         <v>318</v>
@@ -1008,7 +1023,7 @@
         <v>2500</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1016,19 +1031,19 @@
         <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G8" s="1">
         <v>46</v>
@@ -1040,27 +1055,27 @@
         <v>100</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
+      <c r="B9" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G9" s="1">
         <v>29</v>
@@ -1072,7 +1087,7 @@
         <v>50</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1080,19 +1095,19 @@
         <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G10" s="1">
         <v>15</v>
@@ -1101,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1109,19 +1124,19 @@
         <v>18</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G11" s="1">
         <v>281</v>
@@ -1133,7 +1148,7 @@
         <v>1000</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1141,19 +1156,19 @@
         <v>19</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G12" s="1">
         <v>115</v>
@@ -1165,7 +1180,7 @@
         <v>500</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1173,19 +1188,19 @@
         <v>20</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G13" s="1">
         <v>332</v>
@@ -1197,7 +1212,7 @@
         <v>5000</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1205,22 +1220,22 @@
         <v>21</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G14" s="1">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H14" s="1">
         <v>85</v>
@@ -1229,7 +1244,7 @@
         <v>1000</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1237,19 +1252,19 @@
         <v>22</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G15" s="1">
         <v>263</v>
@@ -1261,7 +1276,7 @@
         <v>1000</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1269,19 +1284,19 @@
         <v>23</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G16" s="1">
         <v>311</v>
@@ -1293,7 +1308,7 @@
         <v>2500</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1301,31 +1316,25 @@
         <v>24</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G17" s="1">
-        <v>213</v>
-      </c>
-      <c r="H17" s="1">
-        <v>76</v>
-      </c>
-      <c r="I17" s="1">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1333,28 +1342,31 @@
         <v>25</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="1">
+        <v>213</v>
+      </c>
+      <c r="H18" s="1">
         <v>76</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="1">
-        <v>12</v>
-      </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1362,31 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G19" s="1">
-        <v>331</v>
-      </c>
-      <c r="H19" s="1">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1394,31 +1403,31 @@
         <v>27</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G20" s="1">
-        <v>235</v>
+        <v>331</v>
       </c>
       <c r="H20" s="1">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I20" s="1">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1426,31 +1435,63 @@
         <v>28</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G21" s="1">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="H21" s="1">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I21" s="1">
         <v>1000</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="1">
+        <v>117</v>
+      </c>
+      <c r="H22" s="1">
+        <v>62</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1477,43 +1518,47 @@
     <hyperlink ref="B8" r:id="rId20"/>
     <hyperlink ref="F8" r:id="rId21"/>
     <hyperlink ref="A9" r:id="rId22"/>
-    <hyperlink ref="F9" r:id="rId23"/>
-    <hyperlink ref="A10" r:id="rId24"/>
-    <hyperlink ref="B10" r:id="rId25"/>
-    <hyperlink ref="F10" r:id="rId26"/>
-    <hyperlink ref="A11" r:id="rId27"/>
-    <hyperlink ref="B11" r:id="rId28"/>
-    <hyperlink ref="F11" r:id="rId29"/>
-    <hyperlink ref="A12" r:id="rId30"/>
-    <hyperlink ref="B12" r:id="rId31"/>
-    <hyperlink ref="F12" r:id="rId32"/>
-    <hyperlink ref="A13" r:id="rId33"/>
-    <hyperlink ref="B13" r:id="rId34"/>
-    <hyperlink ref="F13" r:id="rId35"/>
-    <hyperlink ref="A14" r:id="rId36"/>
-    <hyperlink ref="B14" r:id="rId37"/>
-    <hyperlink ref="F14" r:id="rId38"/>
-    <hyperlink ref="A15" r:id="rId39"/>
-    <hyperlink ref="B15" r:id="rId40"/>
-    <hyperlink ref="F15" r:id="rId41"/>
-    <hyperlink ref="A16" r:id="rId42"/>
-    <hyperlink ref="B16" r:id="rId43"/>
-    <hyperlink ref="F16" r:id="rId44"/>
-    <hyperlink ref="A17" r:id="rId45"/>
-    <hyperlink ref="B17" r:id="rId46"/>
-    <hyperlink ref="F17" r:id="rId47"/>
-    <hyperlink ref="A18" r:id="rId48"/>
-    <hyperlink ref="B18" r:id="rId49"/>
-    <hyperlink ref="F18" r:id="rId50"/>
-    <hyperlink ref="A19" r:id="rId51"/>
-    <hyperlink ref="B19" r:id="rId52"/>
-    <hyperlink ref="F19" r:id="rId53"/>
-    <hyperlink ref="A20" r:id="rId54"/>
-    <hyperlink ref="B20" r:id="rId55"/>
-    <hyperlink ref="F20" r:id="rId56"/>
-    <hyperlink ref="A21" r:id="rId57"/>
-    <hyperlink ref="B21" r:id="rId58"/>
-    <hyperlink ref="F21" r:id="rId59"/>
+    <hyperlink ref="B9" r:id="rId23"/>
+    <hyperlink ref="F9" r:id="rId24"/>
+    <hyperlink ref="A10" r:id="rId25"/>
+    <hyperlink ref="B10" r:id="rId26"/>
+    <hyperlink ref="F10" r:id="rId27"/>
+    <hyperlink ref="A11" r:id="rId28"/>
+    <hyperlink ref="B11" r:id="rId29"/>
+    <hyperlink ref="F11" r:id="rId30"/>
+    <hyperlink ref="A12" r:id="rId31"/>
+    <hyperlink ref="B12" r:id="rId32"/>
+    <hyperlink ref="F12" r:id="rId33"/>
+    <hyperlink ref="A13" r:id="rId34"/>
+    <hyperlink ref="B13" r:id="rId35"/>
+    <hyperlink ref="F13" r:id="rId36"/>
+    <hyperlink ref="A14" r:id="rId37"/>
+    <hyperlink ref="B14" r:id="rId38"/>
+    <hyperlink ref="F14" r:id="rId39"/>
+    <hyperlink ref="A15" r:id="rId40"/>
+    <hyperlink ref="B15" r:id="rId41"/>
+    <hyperlink ref="F15" r:id="rId42"/>
+    <hyperlink ref="A16" r:id="rId43"/>
+    <hyperlink ref="B16" r:id="rId44"/>
+    <hyperlink ref="F16" r:id="rId45"/>
+    <hyperlink ref="A17" r:id="rId46"/>
+    <hyperlink ref="B17" r:id="rId47"/>
+    <hyperlink ref="F17" r:id="rId48"/>
+    <hyperlink ref="A18" r:id="rId49"/>
+    <hyperlink ref="B18" r:id="rId50"/>
+    <hyperlink ref="F18" r:id="rId51"/>
+    <hyperlink ref="A19" r:id="rId52"/>
+    <hyperlink ref="B19" r:id="rId53"/>
+    <hyperlink ref="F19" r:id="rId54"/>
+    <hyperlink ref="A20" r:id="rId55"/>
+    <hyperlink ref="B20" r:id="rId56"/>
+    <hyperlink ref="F20" r:id="rId57"/>
+    <hyperlink ref="A21" r:id="rId58"/>
+    <hyperlink ref="B21" r:id="rId59"/>
+    <hyperlink ref="F21" r:id="rId60"/>
+    <hyperlink ref="A22" r:id="rId61"/>
+    <hyperlink ref="B22" r:id="rId62"/>
+    <hyperlink ref="F22" r:id="rId63"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
